--- a/assets/disciplinas/LOM3260.xlsx
+++ b/assets/disciplinas/LOM3260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao aluno uma introdução à computação científica moderna, usando a linguagem Python e suas bibliotecas numéricas e gráficas mais populares: numpy, scipy, matplotlib e pandas. Ao final do curso, o aluno estará capacitado a desenvolver programas complexos, de pequeno e médio porte para solucionar problemas de engenharia que envolvam processamento numérico de grandes conjuntos de dados e correlacionar variáveis usando métodos numéricos.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Introdução à programação em Python; palavras-chave em Python; rotinas e funções; classes; numpy e o conceito de slicing e indexing de arrays; revisão de métodos numéricos usando scipy; geração de gráficos e animações com a biblioteca matplotlib; criação de interfaces gráficas com o usuário usando matplotlib.widgets</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>• Introdução à programação em Python o Instalação de uma distribuição Python em Windows e Linux o Formatação de arquivos em Python o Estruturas condicionais o Laços de repetição de comandos o Outras palavras-chaves e métodos o Rotinas e funções o Códigos multifonte e bibliotecas pessoais o Bibliotecas numéricas e gráficas: numpy, scipy e matplotlib • Programação orientada a objeto: classes o Conceito de objetos e instâncias o Classes e subclasses• “Arrays” em numpy o O conceito de array em numpy o “Slicing” e indexação o Trabalhando com arquivos (entrada e saída)• Métodos numéricos em scipy o Zero de funções o Resolução numérica de integrais o Ajuste não-linear de funções a um conjunto de dados • Gráficos em matplotlib o A biblioteca matplotlib.pyplot e gráficos em 2D e 3D o A biblioteca matplotlib.animation para criar gráficos animados. • Interfaces gráficas com o usuário (Graphical User Interface, GUI) o Interfaces simples com a biblioteca matplotlib.widgets.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas e em laboratório computacional, trabalhos e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de trabalhos propostos ao longo do curso.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não haverá exame de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>•Nilo Ney Coutinho Menezes. Introdução à Programação com Python: Algoritmos e Lógica de Programação Para Iniciantes, 3a ed, 2019. •LANGTANGEN, Hans Petter. A Primer on scientific programming with Python, 2a ed. New York: Springer, 2011. •LANGTANGEN, Hans Petter. Python scripting for computational science, 5a ed. New York: Springer, 2016. •STEWART, J. M. Python for scientists. Cambridge University Press, 2014. •TELLES, M. Python Power, Boston: Thomson Course Technology PTR, 2008. •LUTZ, Mark. Programming Python, 3a ed, Sebastopol, CA: O’Reilly Media, 2006. •SCOPATZ, A.; HUFF, K. D. Effective computation in physics: field guide to research in Python. Sebastpol, CA: O’Reilly Media, 2015. •KINDER, J. M. A Student’s guide to Python for physical modeling. Princeton University Press, 2015. •MCGREGGOR, D. M. Mastering matplotlib. Birmingham, UK: Packt Publishing, 2015. NumPy community, Numpy Reference, 2014. •Scipy community, Scipy Reference Guide, 2017. •HUNTER, J.; DALE, D.; FIRING, E.; DROETTBOOM, F. M. Matplotlib manual, 2016.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,56 +596,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -672,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -681,28 +675,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3260.xlsx
+++ b/assets/disciplinas/LOM3260.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-2</t>
+    <t>EF-1</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3260.xlsx
+++ b/assets/disciplinas/LOM3260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,12 +70,15 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with an introduction to modern scientific computing, using the Python language and its most popular numerical and graphical libraries: numpy, scipy, matplotlib, and pandas. At the end of the course, the student will be able to develop complex, small and medium-sized programs to solve engineering problems that involve numerical processing of large data sets and correlate variables using numerical methods.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,12 +88,18 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Introduction to Python programming; keywords in Python; routines and functions; classes; numpy and the concept of slicing and indexing arrays; review of numerical methods using scipy; generating graphics and animations with the matplotlib library; creating graphical user interfaces using matplotlib.widgets</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>• Introduction to Python programming • Installing a Python distribution on Windows and Linux • Python file formatting • Conditional structures • Command loops • Other keywords and methods • Routines and functions • Multi-source code and personal libraries • Numerical and graphical libraries: numpy, scipy and matplotlib • Object-oriented programming: classes • Concept of objects and instances • Classes and subclasses • “Arrays” in numpy • The concept of array in numpy • “Slicing” and indexing • Working with files ( input and output) • Graphs in matplotlib • The matplotlib.pyplot library and 2D and 3D graphs • The matplotlib.animation library for creating animated graphs. • Graphical User Interface (GUI) • Simple interfaces with the matplotlib.widgets library.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -109,7 +118,7 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de trabalhos propostos ao longo do curso.</t>
+    <t>Média aritmética de exercícios e trabalhos propostos ao longo do curso e uma apresentação final de projeto.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -590,15 +599,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -609,12 +624,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -625,56 +646,62 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3260.xlsx
+++ b/assets/disciplinas/LOM3260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno uma introdução à computação científica moderna, usando a linguagem Python e suas bibliotecas numéricas e gráficas mais populares: numpy, scipy, matplotlib e pandas. Ao final do curso, o aluno estará capacitado a desenvolver programas complexos, de pequeno e médio porte para solucionar problemas de engenharia que envolvam processamento numérico de grandes conjuntos de dados e correlacionar variáveis usando métodos numéricos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with an introduction to modern scientific computing, using the Python language and its most popular numerical and graphical libraries: numpy, scipy, matplotlib, and pandas. At the end of the course, the student will be able to develop complex, small and medium-sized programs to solve engineering problems that involve numerical processing of large data sets and correlate variables using numerical methods.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with an introduction to modern scientific computing, using the Python language and its most popular numerical and graphical libraries: numpy, scipy, matplotlib, and pandas. At the end of the course, the student will be able to develop complex, small and medium-sized programs to solve engineering problems that involve numerical processing of large data sets and correlate variables using numerical methods.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução à programação em Python; palavras-chave em Python; rotinas e funções; classes; numpy e o conceito de slicing e indexing de arrays; revisão de métodos numéricos usando scipy; geração de gráficos e animações com a biblioteca matplotlib; criação de interfaces gráficas com o usuário usando matplotlib.widgets</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>• Introdução à programação em Python • Instalação de uma distribuição Python em Windows e Linux • Formatação de arquivos em Python • Estruturas condicionais • Laços de repetição de comandos • Outras palavras-chaves e métodos • Rotinas e funções • Códigos multifonte e bibliotecas pessoais • Bibliotecas numéricas e gráficas: numpy, scipy e matplotlib • Programação orientada a objeto: classes • Conceito de objetos e instâncias • Classes e subclasses• “Arrays” em numpy • O conceito de array em numpy • “Slicing” e indexação • Trabalhando com arquivos (entrada e saída) • Gráficos em matplotlib • A biblioteca matplotlib.pyplot e gráficos em 2D e 3D • A biblioteca matplotlib.animation para criar gráficos animados. • Interfaces gráficas com o usuário (Graphical User Interface, GUI) • Interfaces simples com a biblioteca matplotlib.widgets.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>Aulas expositivas e em laboratório computacional, trabalhos e exercícios comentados.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e em laboratório computacional, trabalhos e exercícios comentados.</t>
+    <t>Média aritmética de exercícios e trabalhos propostos ao longo do curso e uma apresentação final de projeto.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de exercícios e trabalhos propostos ao longo do curso e uma apresentação final de projeto.</t>
+    <t>Não haverá exame de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não haverá exame de recuperação.</t>
+    <t>Lambert, K. A. Fundamentos de Python: estruturas de dados. Cengage, 2ed, 2022.Nilo Ney Coutinho Menezes. Introdução à Programação com Python: Algoritmos e Lógica de Programação Para Iniciantes, 3a ed, 2019.Ramalho, L. Python Fluente. O’Reilly-Novatec, 2015Downey, A. B. Pense em Python. O’Reilly-Novatec, 2016.STEWART, J. M. Python for scientists. Cambridge University Press, 2014.TELLES, M. Python Power, Boston: Thomson Course Technology PTR, 2008.LUTZ, Mark. Programming Python, 3a ed, Sebastopol, CA: O’Reilly Media, 2006.MCGREGGOR, D. M. Mastering matplotlib. Birmingham, UK: Packt Publishing, 2015.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,40 +623,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,30 +661,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -693,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,6 +708,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
